--- a/src/main/java/com/example/demo/helpers/templates/WorkloadTemplate.xlsx
+++ b/src/main/java/com/example/demo/helpers/templates/WorkloadTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAL-\Desktop\backend-demo\src\main\java\com\example\demo\helpers\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CFBB7-D7A0-4A18-B3ED-B4D49F504D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88FD37-4C2B-49F8-A308-CE41CB6D43FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="6660" tabRatio="938" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="938" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeName" sheetId="78" r:id="rId1"/>
@@ -792,7 +792,38 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -20931,11 +20962,11 @@
         <v/>
       </c>
       <c r="AR199" s="14" t="str">
-        <f t="shared" ref="AR199:AR262" si="59">IF(T199=1,IF(E199="о",ROUND(1*G199,1),IF(E199="з",2*G199,"")),"")</f>
+        <f t="shared" ref="AR199:AR250" si="59">IF(T199=1,IF(E199="о",ROUND(1*G199,1),IF(E199="з",2*G199,"")),"")</f>
         <v/>
       </c>
       <c r="AS199" s="14" t="str">
-        <f t="shared" ref="AS199:AS262" si="60">IF(U199=1,ROUND(G199*H199,1),"")</f>
+        <f t="shared" ref="AS199:AS250" si="60">IF(U199=1,ROUND(G199*H199,1),"")</f>
         <v/>
       </c>
       <c r="AT199" s="14" t="str">
@@ -45919,6 +45950,14 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="BF5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>900</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>900</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
